--- a/Accounts-Schedules/تدريب سامسونج 21-7-2025.xlsx
+++ b/Accounts-Schedules/تدريب سامسونج 21-7-2025.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$I$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="152">
   <si>
     <t>Below is the list of trainees scheduled for the Training at Samsung on Monday, July, 21st, from 10 AM to 7 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
@@ -243,6 +243,33 @@
     <t>Maha A.Maksoud</t>
   </si>
   <si>
+    <t>Roaa Amr</t>
+  </si>
+  <si>
+    <t>Mostafa Gad</t>
+  </si>
+  <si>
+    <t>معادي كورنيش</t>
+  </si>
+  <si>
+    <t>اكاديمية السادات</t>
+  </si>
+  <si>
+    <t>Haneen Khalid</t>
+  </si>
+  <si>
+    <t>العبور - دائري</t>
+  </si>
+  <si>
+    <t>كارفور العبور</t>
+  </si>
+  <si>
+    <t>Mokattam</t>
+  </si>
+  <si>
+    <t>Reem Abdallah</t>
+  </si>
+  <si>
     <t>Training at Samsung on Monday, July, 21st, from 10 AM to 7 PM.</t>
   </si>
   <si>
@@ -276,6 +303,12 @@
     <t>مريم ياقوت</t>
   </si>
   <si>
+    <t>حنين خالد</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
     <t>محمد عصام صلاح الدين</t>
   </si>
   <si>
@@ -303,6 +336,15 @@
     <t>مريم مصطفى</t>
   </si>
   <si>
+    <t>ريم عبد الله</t>
+  </si>
+  <si>
+    <t>م - المقطم</t>
+  </si>
+  <si>
+    <t>؟</t>
+  </si>
+  <si>
     <t>حازم حرجة</t>
   </si>
   <si>
@@ -321,6 +363,9 @@
     <t>يوسف رفعت</t>
   </si>
   <si>
+    <t>رؤى عمرو</t>
+  </si>
+  <si>
     <t>مها عبد المقصود</t>
   </si>
   <si>
@@ -333,6 +378,12 @@
     <t>دانا عمرو</t>
   </si>
   <si>
+    <t>مصطفى جاد</t>
+  </si>
+  <si>
+    <t>ي - المعادي</t>
+  </si>
+  <si>
     <t>عمر الشامي</t>
   </si>
   <si>
@@ -343,6 +394,99 @@
   </si>
   <si>
     <t>روان فاروق</t>
+  </si>
+  <si>
+    <t>ولي العهد</t>
+  </si>
+  <si>
+    <t>سلم البارون</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>• Arrival Time: 10:00 AM</t>
+  </si>
+  <si>
+    <t>TWWID</t>
+  </si>
+  <si>
+    <t>Employee name</t>
+  </si>
+  <si>
+    <t>Shift - Start</t>
+  </si>
+  <si>
+    <t>Shift - End</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>• Departure Time: 07:00 PM</t>
+  </si>
+  <si>
+    <t>• Start Date: 28/07/2025</t>
+  </si>
+  <si>
+    <t>شروق</t>
+  </si>
+  <si>
+    <t>كشك اللحمة</t>
+  </si>
+  <si>
+    <t>• End Date: 01/08/2025</t>
+  </si>
+  <si>
+    <t>التجمع والرحاب</t>
+  </si>
+  <si>
+    <t>ميدان ارابيلا</t>
+  </si>
+  <si>
+    <t>الرحاب بوابه 13</t>
+  </si>
+  <si>
+    <t>الف مسكن</t>
+  </si>
+  <si>
+    <t>حلوان و المعادي</t>
+  </si>
+  <si>
+    <t>مهندسين</t>
+  </si>
+  <si>
+    <t>مدان لبنان</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>بوابه 1</t>
+  </si>
+  <si>
+    <t>العاشر</t>
+  </si>
+  <si>
+    <t>مطعم الفقير</t>
+  </si>
+  <si>
+    <t>الزتون و مصر الجديده</t>
+  </si>
+  <si>
+    <t>عبور</t>
+  </si>
+  <si>
+    <t>كارفور</t>
+  </si>
+  <si>
+    <t>معادي</t>
+  </si>
+  <si>
+    <t>اكادمية السادات</t>
   </si>
 </sst>
 </file>
@@ -356,7 +500,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,12 +544,26 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -562,7 +720,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,6 +748,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1155CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,137 +1145,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1148,47 +1312,107 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1723,19 +1947,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="24.9090909090909" style="14" customWidth="1"/>
-    <col min="3" max="3" width="33.0909090909091" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.0636363636364" style="14" customWidth="1"/>
-    <col min="5" max="5" width="15.9090909090909" style="14" customWidth="1"/>
+    <col min="2" max="2" width="24.9090909090909" style="25" customWidth="1"/>
+    <col min="3" max="3" width="33.0909090909091" style="25" customWidth="1"/>
+    <col min="4" max="4" width="16.0636363636364" style="25" customWidth="1"/>
+    <col min="5" max="5" width="15.9090909090909" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1750,458 +1974,539 @@
     </row>
     <row r="3" ht="15.25"/>
     <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="13" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A5" s="18" t="s">
+    <row r="5" s="24" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="30">
         <v>1002212344</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:5">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="30">
         <v>1146053007</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="1:5">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="30">
         <v>1010892590</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="1:5">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="30">
         <v>1000169013</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="30" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:5">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="30">
         <v>1069242276</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="30" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:5">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="30">
         <v>1110261700</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:5">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="30">
         <v>1030788901</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:5">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="30">
         <v>1127188332</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:5">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="30">
         <v>1095986591</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="30">
         <v>1226226442</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:5">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="30">
         <v>1012585561</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="30">
         <v>1201899309</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="30">
         <v>1096866932</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="30">
         <v>1210270739</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="31">
         <v>1115554503</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="30">
         <v>1003861798</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="31">
         <v>1146076917</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="30">
         <v>1029557588</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="34">
         <v>1026643249</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="34">
         <v>1127933488</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="30" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="36">
         <v>1146039003</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="30" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" ht="15.25" spans="1:5">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="36">
         <v>1211552537</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="30" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" ht="15.25" spans="1:5">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="34">
         <v>1221306832</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="30" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25"/>
+    <row r="32" ht="15.25" spans="1:5">
+      <c r="A32" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" ht="15.25" spans="1:5">
+      <c r="A33" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="40">
+        <v>1004316775</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" ht="15.25" spans="1:5">
+      <c r="A34" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="40">
+        <v>1142422826</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" ht="15.25" spans="1:5">
+      <c r="A35" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="43">
+        <v>1028978525</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25"/>
+    <row r="37" ht="15.25" spans="1:3">
+      <c r="A37" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="45">
+        <v>1550623084</v>
       </c>
     </row>
   </sheetData>
@@ -2213,10 +2518,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I28"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H5" sqref="B5:H24"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53:G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2233,23 +2538,23 @@
     <col min="10" max="16384" width="8.72727272727273" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.25" spans="6:6">
+    <row r="1" ht="16" customHeight="1" spans="6:6">
       <c r="F1" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="19.25" spans="2:9">
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>2</v>
@@ -2275,10 +2580,10 @@
         <v>1110261700</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>29</v>
@@ -2301,10 +2606,10 @@
         <v>1115554503</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>52</v>
@@ -2327,10 +2632,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>13</v>
@@ -2342,7 +2647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" ht="15.25" spans="2:9">
       <c r="B6" s="7">
         <v>0.416666666666667</v>
       </c>
@@ -2353,10 +2658,10 @@
         <v>1146053007</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>16</v>
@@ -2368,7 +2673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" ht="15.25" spans="2:9">
       <c r="B7" s="7">
         <v>0.416666666666667</v>
       </c>
@@ -2379,10 +2684,10 @@
         <v>1201899309</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>16</v>
@@ -2394,7 +2699,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" ht="15.25" spans="2:9">
       <c r="B8" s="7">
         <v>0.416666666666667</v>
       </c>
@@ -2405,10 +2710,10 @@
         <v>65</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>16</v>
@@ -2420,99 +2725,99 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" ht="15.25" spans="2:9">
       <c r="B9" s="7">
         <v>0.416666666666667</v>
       </c>
       <c r="C9" s="7">
         <v>0.791666666666667</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="11">
+        <v>1028978525</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25" spans="2:9">
+      <c r="B10" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D10" s="8">
         <v>1029557588</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="E10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D10" s="8">
+    <row r="11" ht="15.25" spans="2:9">
+      <c r="B11" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D11" s="8">
         <v>1000169013</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="F11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I11" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D11" s="8">
+    <row r="12" ht="15.25" spans="2:9">
+      <c r="B12" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D12" s="8">
         <v>1095986591</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1146039003</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>35</v>
@@ -2520,63 +2825,63 @@
       <c r="H12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="2:9">
+      <c r="B13" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1146039003</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D13" s="8">
+    <row r="14" ht="15.25" spans="2:9">
+      <c r="B14" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D14" s="8">
         <v>1069242276</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1030788901</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="15.25" spans="2:9">
       <c r="B15" s="7">
         <v>0.416666666666667</v>
       </c>
@@ -2584,13 +2889,13 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D15" s="8">
-        <v>1003861798</v>
+        <v>1030788901</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>26</v>
@@ -2599,338 +2904,1131 @@
         <v>31</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25" spans="2:9">
       <c r="B16" s="7">
         <v>0.416666666666667</v>
       </c>
       <c r="C16" s="7">
         <v>0.791666666666667</v>
       </c>
-      <c r="D16" s="11">
-        <v>1211552537</v>
+      <c r="D16" s="8">
+        <v>1003861798</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="2:9">
+      <c r="B17" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1211552537</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I17" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D17" s="8">
+    <row r="18" ht="15.25" spans="2:9">
+      <c r="B18" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1550623084</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="2:9">
+      <c r="B19" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D19" s="8">
         <v>1002212344</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1127188332</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1127933488</v>
-      </c>
       <c r="E19" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="2:9">
+      <c r="B20" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1127188332</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="2:9">
+      <c r="B21" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1127933488</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D20" s="8">
+    <row r="22" ht="15.25" spans="2:9">
+      <c r="B22" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D22" s="8">
         <v>1010892590</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="2:9">
+      <c r="B23" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1096866932</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="2:9">
+      <c r="B24" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1004316775</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="2:9">
+      <c r="B25" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1221306832</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="2:9">
+      <c r="B26" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1210270739</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="2:9">
+      <c r="B27" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1026643249</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="2:9">
+      <c r="B28" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1142422826</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="2:9">
+      <c r="B29" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1226226442</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="2:9">
+      <c r="B30" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1012585561</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="2:9">
+      <c r="B31" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" ht="15.25" spans="2:9">
+      <c r="B32" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1146076917</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9">
+      <c r="D34" s="2">
+        <v>10337075</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1010892590</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9">
+      <c r="D35" s="2">
+        <v>10337089</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1000169013</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9">
+      <c r="D36" s="2">
+        <v>10337042</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1069242276</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9">
+      <c r="D37" s="2">
+        <v>10337074</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1030788901</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9">
+      <c r="D38" s="2">
+        <v>10337078</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9">
+      <c r="D39" s="2">
+        <v>10309485</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1146076917</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9">
+      <c r="D40" s="2">
+        <v>10337038</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1029557588</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9">
+      <c r="D41" s="2">
+        <v>10337033</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1026643249</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9">
+      <c r="D42" s="2">
+        <v>10337017</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1127933488</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9">
+      <c r="D43" s="2">
+        <v>10337032</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1146039003</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9">
+      <c r="D44" s="2">
+        <v>10337090</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9">
+      <c r="D45" s="2">
+        <v>10337069</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1211552537</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9">
+      <c r="D46" s="2">
+        <v>10337194</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1115554503</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9">
+      <c r="D47" s="2">
+        <v>10337196</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1004316775</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9">
+      <c r="D48" s="2">
+        <v>10337280</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1028978525</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="10" t="s">
+    </row>
+    <row r="49" spans="4:9">
+      <c r="D49" s="2">
+        <v>10337193</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1142422826</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25"/>
+    <row r="51" ht="16.25" spans="1:9">
+      <c r="A51" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" ht="16.25" spans="1:9">
+      <c r="A52" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" ht="16.25" spans="1:9">
+      <c r="A53" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="18">
+        <v>10337075</v>
+      </c>
+      <c r="E53" s="19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1096866932</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="F53" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G53" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" ht="16.25" spans="1:9">
+      <c r="A54" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="18">
+        <v>10337089</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G54" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" ht="15.25" spans="4:9">
+      <c r="D55" s="18">
+        <v>10337042</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G55" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="4:9">
+      <c r="D56" s="18">
+        <v>10337074</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G56" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="4:9">
+      <c r="D57" s="18">
+        <v>10337078</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G57" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" ht="15.25" spans="4:9">
+      <c r="D58" s="18">
+        <v>10309485</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G58" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" ht="15.25" spans="4:9">
+      <c r="D59" s="18">
+        <v>10337038</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G59" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I59" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" ht="15.25" spans="4:9">
+      <c r="D60" s="18">
+        <v>10337033</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G60" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="I60" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" ht="15.25" spans="4:9">
+      <c r="D61" s="18">
+        <v>10337017</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G61" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" ht="15.25" spans="4:9">
+      <c r="D62" s="18">
+        <v>10337032</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G62" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" ht="15.25" spans="4:9">
+      <c r="D63" s="18">
+        <v>10337090</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G63" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" ht="15.25" spans="4:9">
+      <c r="D64" s="18">
+        <v>10337069</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G64" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I64" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" ht="15.25" spans="4:9">
+      <c r="D65" s="23">
+        <v>10337194</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G65" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" ht="15.25" spans="4:9">
+      <c r="D66" s="23">
+        <v>10337196</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F66" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G66" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" ht="15.25" spans="4:9">
+      <c r="D67" s="23">
+        <v>10337280</v>
+      </c>
+      <c r="E67" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1221306832</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1210270739</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D24" s="8">
-        <v>1026643249</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1226226442</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1012585561</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D28" s="11">
-        <v>1146076917</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="12" t="s">
-        <v>55</v>
+      <c r="F67" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G67" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" ht="15.25" spans="4:9">
+      <c r="D68" s="23">
+        <v>10337193</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G68" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I28" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="B3:I28">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I32" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="B2:I32">
       <sortCondition ref="G2"/>
     </sortState>
     <extLst/>
   </autoFilter>
+  <mergeCells count="6">
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Accounts-Schedules/تدريب سامسونج 21-7-2025.xlsx
+++ b/Accounts-Schedules/تدريب سامسونج 21-7-2025.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="155">
   <si>
     <t>Below is the list of trainees scheduled for the Training at Samsung on Monday, July, 21st, from 10 AM to 7 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
@@ -487,6 +487,15 @@
   </si>
   <si>
     <t>اكادمية السادات</t>
+  </si>
+  <si>
+    <t>Arrival Time: 10:00 AM</t>
+  </si>
+  <si>
+    <t>• Start Date: 4/8/2025</t>
+  </si>
+  <si>
+    <t>• End Date: 8/8/2025</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1348,6 +1357,30 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1363,12 +1396,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1397,9 +1424,6 @@
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1956,10 +1980,10 @@
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="24.9090909090909" style="25" customWidth="1"/>
-    <col min="3" max="3" width="33.0909090909091" style="25" customWidth="1"/>
-    <col min="4" max="4" width="16.0636363636364" style="25" customWidth="1"/>
-    <col min="5" max="5" width="15.9090909090909" style="25" customWidth="1"/>
+    <col min="2" max="2" width="24.9090909090909" style="33" customWidth="1"/>
+    <col min="3" max="3" width="33.0909090909091" style="33" customWidth="1"/>
+    <col min="4" max="4" width="16.0636363636364" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.9090909090909" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1974,538 +1998,538 @@
     </row>
     <row r="3" ht="15.25"/>
     <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="24" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A5" s="29" t="s">
+    <row r="5" s="32" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="21">
         <v>1002212344</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:5">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="21">
         <v>1146053007</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="1:5">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="21">
         <v>1010892590</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="1:5">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="21">
         <v>1000169013</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:5">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="21">
         <v>1069242276</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:5">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="21">
         <v>1110261700</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:5">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="21">
         <v>1030788901</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:5">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="21">
         <v>1127188332</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:5">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="21">
         <v>1095986591</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="21">
         <v>1226226442</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:5">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="21">
         <v>1012585561</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="21">
         <v>1201899309</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="21">
         <v>1096866932</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="21">
         <v>1210270739</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="37">
         <v>1115554503</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="21">
         <v>1003861798</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="37">
         <v>1146076917</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="21">
         <v>1029557588</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="40">
         <v>1026643249</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="40">
         <v>1127933488</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="42">
         <v>1146039003</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" ht="15.25" spans="1:5">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="42">
         <v>1211552537</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" ht="15.25" spans="1:5">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="40">
         <v>1221306832</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" ht="15.25"/>
     <row r="32" ht="15.25" spans="1:5">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="44" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="40">
+      <c r="B33" s="46">
         <v>1004316775</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" ht="15.25" spans="1:5">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="40">
+      <c r="B34" s="46">
         <v>1142422826</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" ht="15.25" spans="1:5">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="43">
+      <c r="B35" s="48">
         <v>1028978525</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="1:3">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="45">
+      <c r="C37" s="50">
         <v>1550623084</v>
       </c>
     </row>
@@ -2518,10 +2542,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53:G68"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2538,7 +2562,7 @@
     <col min="10" max="16384" width="8.72727272727273" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1" spans="6:6">
+    <row r="1" ht="16.75" customHeight="1" spans="6:6">
       <c r="F1" s="3" t="s">
         <v>79</v>
       </c>
@@ -4012,6 +4036,347 @@
       </c>
       <c r="I68" s="21" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="70" ht="15.25"/>
+    <row r="71" ht="15.25" spans="4:9">
+      <c r="D71" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I71" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" ht="15.25" spans="1:9">
+      <c r="A72" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" s="24"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+    </row>
+    <row r="73" ht="15.25" spans="1:9">
+      <c r="A73" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="27">
+        <v>10337075</v>
+      </c>
+      <c r="E73" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G73" s="29">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H73" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="I73" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" ht="15.25" spans="1:9">
+      <c r="A74" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="27">
+        <v>10337089</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G74" s="29">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H74" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I74" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" ht="15.25" spans="1:9">
+      <c r="A75" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="27">
+        <v>10337042</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G75" s="29">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H75" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="I75" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" ht="15.25" spans="4:9">
+      <c r="D76" s="27">
+        <v>10337074</v>
+      </c>
+      <c r="E76" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G76" s="29">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="I76" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" ht="15.25" spans="4:9">
+      <c r="D77" s="27">
+        <v>10337078</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G77" s="29">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H77" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" ht="15.25" spans="4:9">
+      <c r="D78" s="27">
+        <v>10309485</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G78" s="29">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H78" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I78" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" ht="15.25" spans="4:9">
+      <c r="D79" s="27">
+        <v>10337038</v>
+      </c>
+      <c r="E79" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G79" s="29">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H79" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="I79" s="30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" ht="15.25" spans="4:9">
+      <c r="D80" s="27">
+        <v>10337033</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F80" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G80" s="29">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H80" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I80" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" ht="15.25" spans="4:9">
+      <c r="D81" s="27">
+        <v>10337017</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G81" s="29">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H81" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" s="30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" ht="15.25" spans="4:9">
+      <c r="D82" s="27">
+        <v>10337032</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F82" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G82" s="29">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H82" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I82" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" ht="15.25" spans="4:9">
+      <c r="D83" s="27">
+        <v>10337090</v>
+      </c>
+      <c r="E83" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F83" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G83" s="29">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H83" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="I83" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" ht="15.25" spans="4:9">
+      <c r="D84" s="27">
+        <v>10337069</v>
+      </c>
+      <c r="E84" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F84" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G84" s="29">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H84" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="I84" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" ht="15.25" spans="4:9">
+      <c r="D85" s="31">
+        <v>10337194</v>
+      </c>
+      <c r="E85" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F85" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G85" s="29">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H85" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="I85" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" ht="15.25" spans="4:9">
+      <c r="D86" s="31">
+        <v>10337196</v>
+      </c>
+      <c r="E86" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F86" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G86" s="29">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H86" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="I86" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" ht="15.25" spans="4:9">
+      <c r="D87" s="31">
+        <v>10337280</v>
+      </c>
+      <c r="E87" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G87" s="29">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H87" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="I87" s="30" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4021,13 +4386,19 @@
     </sortState>
     <extLst/>
   </autoFilter>
-  <mergeCells count="6">
+  <mergeCells count="12">
     <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D71:D72"/>
     <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E71:E72"/>
     <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F71:F72"/>
     <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G71:G72"/>
     <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H71:H72"/>
     <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I71:I72"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/تدريب سامسونج 21-7-2025.xlsx
+++ b/Accounts-Schedules/تدريب سامسونج 21-7-2025.xlsx
@@ -1284,7 +1284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1357,29 +1357,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1980,10 +1959,10 @@
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="24.9090909090909" style="33" customWidth="1"/>
-    <col min="3" max="3" width="33.0909090909091" style="33" customWidth="1"/>
-    <col min="4" max="4" width="16.0636363636364" style="33" customWidth="1"/>
-    <col min="5" max="5" width="15.9090909090909" style="33" customWidth="1"/>
+    <col min="2" max="2" width="24.9090909090909" style="26" customWidth="1"/>
+    <col min="3" max="3" width="33.0909090909091" style="26" customWidth="1"/>
+    <col min="4" max="4" width="16.0636363636364" style="26" customWidth="1"/>
+    <col min="5" max="5" width="15.9090909090909" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1998,23 +1977,23 @@
     </row>
     <row r="3" ht="15.25"/>
     <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="32" customFormat="1" ht="15.25" spans="1:5">
+    <row r="5" s="25" customFormat="1" ht="15.25" spans="1:5">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -2290,7 +2269,7 @@
       <c r="A21" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="30">
         <v>1115554503</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -2321,10 +2300,10 @@
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="30">
         <v>1146076917</v>
       </c>
       <c r="C23" s="21" t="s">
@@ -2351,10 +2330,10 @@
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="33">
         <v>1026643249</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -2368,10 +2347,10 @@
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="33">
         <v>1127933488</v>
       </c>
       <c r="C26" s="21" t="s">
@@ -2385,10 +2364,10 @@
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="35">
         <v>1146039003</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -2402,10 +2381,10 @@
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="33" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="21" t="s">
@@ -2419,10 +2398,10 @@
       </c>
     </row>
     <row r="29" ht="15.25" spans="1:5">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="42">
+      <c r="B29" s="35">
         <v>1211552537</v>
       </c>
       <c r="C29" s="21" t="s">
@@ -2436,10 +2415,10 @@
       </c>
     </row>
     <row r="30" ht="15.25" spans="1:5">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="40">
+      <c r="B30" s="33">
         <v>1221306832</v>
       </c>
       <c r="C30" s="21" t="s">
@@ -2454,27 +2433,27 @@
     </row>
     <row r="31" ht="15.25"/>
     <row r="32" ht="15.25" spans="1:5">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="46">
+      <c r="B33" s="39">
         <v>1004316775</v>
       </c>
       <c r="C33" s="22" t="s">
@@ -2488,10 +2467,10 @@
       </c>
     </row>
     <row r="34" ht="15.25" spans="1:5">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B34" s="39">
         <v>1142422826</v>
       </c>
       <c r="C34" s="22" t="s">
@@ -2505,10 +2484,10 @@
       </c>
     </row>
     <row r="35" ht="15.25" spans="1:5">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="48">
+      <c r="B35" s="41">
         <v>1028978525</v>
       </c>
       <c r="C35" s="22" t="s">
@@ -2523,13 +2502,13 @@
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="1:3">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="50">
+      <c r="C37" s="43">
         <v>1550623084</v>
       </c>
     </row>
@@ -2545,7 +2524,7 @@
   <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:A75"/>
+      <selection activeCell="D73" sqref="D73:G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -4040,342 +4019,342 @@
     </row>
     <row r="70" ht="15.25"/>
     <row r="71" ht="15.25" spans="4:9">
-      <c r="D71" s="24" t="s">
+      <c r="D71" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E71" s="25" t="s">
+      <c r="E71" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F71" s="25" t="s">
+      <c r="F71" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G71" s="25" t="s">
+      <c r="G71" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="H71" s="25" t="s">
+      <c r="H71" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I71" s="25" t="s">
+      <c r="I71" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="72" ht="15.25" spans="1:9">
-      <c r="A72" s="26" t="s">
+      <c r="A72" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
     </row>
     <row r="73" ht="15.25" spans="1:9">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D73" s="27">
+      <c r="D73" s="18">
         <v>10337075</v>
       </c>
-      <c r="E73" s="28" t="s">
+      <c r="E73" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F73" s="29">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G73" s="29">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H73" s="30" t="s">
+      <c r="F73" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G73" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H73" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I73" s="30" t="s">
+      <c r="I73" s="21" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="74" ht="15.25" spans="1:9">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="D74" s="27">
+      <c r="D74" s="18">
         <v>10337089</v>
       </c>
-      <c r="E74" s="28" t="s">
+      <c r="E74" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="29">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G74" s="29">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H74" s="30" t="s">
+      <c r="F74" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G74" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H74" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I74" s="30" t="s">
+      <c r="I74" s="21" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="75" ht="15.25" spans="1:9">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="D75" s="27">
+      <c r="D75" s="18">
         <v>10337042</v>
       </c>
-      <c r="E75" s="28" t="s">
+      <c r="E75" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="29">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G75" s="29">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H75" s="30" t="s">
+      <c r="F75" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G75" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H75" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="I75" s="30" t="s">
+      <c r="I75" s="21" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="76" ht="15.25" spans="4:9">
-      <c r="D76" s="27">
+      <c r="D76" s="18">
         <v>10337074</v>
       </c>
-      <c r="E76" s="28" t="s">
+      <c r="E76" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F76" s="29">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G76" s="29">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H76" s="30" t="s">
+      <c r="F76" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G76" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H76" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="I76" s="30" t="s">
+      <c r="I76" s="21" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="77" ht="15.25" spans="4:9">
-      <c r="D77" s="27">
+      <c r="D77" s="18">
         <v>10337078</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F77" s="29">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G77" s="29">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H77" s="30" t="s">
+      <c r="F77" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G77" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H77" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I77" s="30" t="s">
+      <c r="I77" s="21" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="78" ht="15.25" spans="4:9">
-      <c r="D78" s="27">
+      <c r="D78" s="18">
         <v>10309485</v>
       </c>
-      <c r="E78" s="28" t="s">
+      <c r="E78" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F78" s="29">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G78" s="29">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H78" s="30" t="s">
+      <c r="F78" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G78" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H78" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="I78" s="30" t="s">
+      <c r="I78" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="79" ht="15.25" spans="4:9">
-      <c r="D79" s="27">
+      <c r="D79" s="18">
         <v>10337038</v>
       </c>
-      <c r="E79" s="28" t="s">
+      <c r="E79" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F79" s="29">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G79" s="29">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H79" s="30" t="s">
+      <c r="F79" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G79" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H79" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="I79" s="30" t="s">
+      <c r="I79" s="21" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="80" ht="15.25" spans="4:9">
-      <c r="D80" s="27">
+      <c r="D80" s="18">
         <v>10337033</v>
       </c>
-      <c r="E80" s="28" t="s">
+      <c r="E80" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F80" s="29">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G80" s="29">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H80" s="30" t="s">
+      <c r="F80" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G80" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H80" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="I80" s="30" t="s">
+      <c r="I80" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="81" ht="15.25" spans="4:9">
-      <c r="D81" s="27">
+      <c r="D81" s="18">
         <v>10337017</v>
       </c>
-      <c r="E81" s="28" t="s">
+      <c r="E81" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F81" s="29">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G81" s="29">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H81" s="30" t="s">
+      <c r="F81" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G81" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H81" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I81" s="30" t="s">
+      <c r="I81" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="82" ht="15.25" spans="4:9">
-      <c r="D82" s="27">
+      <c r="D82" s="18">
         <v>10337032</v>
       </c>
-      <c r="E82" s="28" t="s">
+      <c r="E82" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F82" s="29">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G82" s="29">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H82" s="30" t="s">
+      <c r="F82" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G82" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H82" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I82" s="28" t="s">
+      <c r="I82" s="22" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="83" ht="15.25" spans="4:9">
-      <c r="D83" s="27">
+      <c r="D83" s="18">
         <v>10337090</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F83" s="29">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G83" s="29">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H83" s="30" t="s">
+      <c r="F83" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G83" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H83" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="I83" s="30" t="s">
+      <c r="I83" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="84" ht="15.25" spans="4:9">
-      <c r="D84" s="27">
+      <c r="D84" s="18">
         <v>10337069</v>
       </c>
-      <c r="E84" s="28" t="s">
+      <c r="E84" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F84" s="29">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G84" s="29">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H84" s="30" t="s">
+      <c r="F84" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G84" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H84" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="I84" s="30" t="s">
+      <c r="I84" s="21" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="85" ht="15.25" spans="4:9">
-      <c r="D85" s="31">
+      <c r="D85" s="23">
         <v>10337194</v>
       </c>
-      <c r="E85" s="28" t="s">
+      <c r="E85" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F85" s="29">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G85" s="29">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H85" s="30" t="s">
+      <c r="F85" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G85" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H85" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="I85" s="30" t="s">
+      <c r="I85" s="21" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="86" ht="15.25" spans="4:9">
-      <c r="D86" s="31">
+      <c r="D86" s="23">
         <v>10337196</v>
       </c>
-      <c r="E86" s="28" t="s">
+      <c r="E86" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F86" s="29">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G86" s="29">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H86" s="30" t="s">
+      <c r="F86" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G86" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H86" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I86" s="30" t="s">
+      <c r="I86" s="21" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="87" ht="15.25" spans="4:9">
-      <c r="D87" s="31">
+      <c r="D87" s="23">
         <v>10337280</v>
       </c>
-      <c r="E87" s="28" t="s">
+      <c r="E87" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F87" s="29">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G87" s="29">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H87" s="30" t="s">
+      <c r="F87" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G87" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H87" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="I87" s="30" t="s">
+      <c r="I87" s="21" t="s">
         <v>149</v>
       </c>
     </row>

--- a/Accounts-Schedules/تدريب سامسونج 21-7-2025.xlsx
+++ b/Accounts-Schedules/تدريب سامسونج 21-7-2025.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="159">
   <si>
     <t>Below is the list of trainees scheduled for the Training at Samsung on Monday, July, 21st, from 10 AM to 7 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
@@ -496,6 +496,18 @@
   </si>
   <si>
     <t>• End Date: 8/8/2025</t>
+  </si>
+  <si>
+    <t>Arrival Time: 9:00 AM</t>
+  </si>
+  <si>
+    <t>• Departure Time: 6:00 PM</t>
+  </si>
+  <si>
+    <t>• Start Date: 11/8/2025</t>
+  </si>
+  <si>
+    <t>• End Date: 15/8/2025</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1359,6 +1371,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1959,10 +1992,10 @@
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="24.9090909090909" style="26" customWidth="1"/>
-    <col min="3" max="3" width="33.0909090909091" style="26" customWidth="1"/>
-    <col min="4" max="4" width="16.0636363636364" style="26" customWidth="1"/>
-    <col min="5" max="5" width="15.9090909090909" style="26" customWidth="1"/>
+    <col min="2" max="2" width="24.9090909090909" style="33" customWidth="1"/>
+    <col min="3" max="3" width="33.0909090909091" style="33" customWidth="1"/>
+    <col min="4" max="4" width="16.0636363636364" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.9090909090909" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1977,23 +2010,23 @@
     </row>
     <row r="3" ht="15.25"/>
     <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="25" customFormat="1" ht="15.25" spans="1:5">
+    <row r="5" s="32" customFormat="1" ht="15.25" spans="1:5">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -2269,7 +2302,7 @@
       <c r="A21" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="37">
         <v>1115554503</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -2300,10 +2333,10 @@
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="37">
         <v>1146076917</v>
       </c>
       <c r="C23" s="21" t="s">
@@ -2330,10 +2363,10 @@
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="40">
         <v>1026643249</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -2347,10 +2380,10 @@
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="40">
         <v>1127933488</v>
       </c>
       <c r="C26" s="21" t="s">
@@ -2364,10 +2397,10 @@
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B27" s="42">
         <v>1146039003</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -2381,10 +2414,10 @@
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="40" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="21" t="s">
@@ -2398,10 +2431,10 @@
       </c>
     </row>
     <row r="29" ht="15.25" spans="1:5">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="35">
+      <c r="B29" s="42">
         <v>1211552537</v>
       </c>
       <c r="C29" s="21" t="s">
@@ -2415,10 +2448,10 @@
       </c>
     </row>
     <row r="30" ht="15.25" spans="1:5">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="40">
         <v>1221306832</v>
       </c>
       <c r="C30" s="21" t="s">
@@ -2433,27 +2466,27 @@
     </row>
     <row r="31" ht="15.25"/>
     <row r="32" ht="15.25" spans="1:5">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="44" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="39">
+      <c r="B33" s="46">
         <v>1004316775</v>
       </c>
       <c r="C33" s="22" t="s">
@@ -2467,10 +2500,10 @@
       </c>
     </row>
     <row r="34" ht="15.25" spans="1:5">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="39">
+      <c r="B34" s="46">
         <v>1142422826</v>
       </c>
       <c r="C34" s="22" t="s">
@@ -2484,10 +2517,10 @@
       </c>
     </row>
     <row r="35" ht="15.25" spans="1:5">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="41">
+      <c r="B35" s="48">
         <v>1028978525</v>
       </c>
       <c r="C35" s="22" t="s">
@@ -2502,13 +2535,13 @@
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="1:3">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="50">
         <v>1550623084</v>
       </c>
     </row>
@@ -2521,10 +2554,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73:G87"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93:G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2541,7 +2574,7 @@
     <col min="10" max="16384" width="8.72727272727273" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.75" customHeight="1" spans="6:6">
+    <row r="1" ht="17.5" customHeight="1" spans="6:6">
       <c r="F1" s="3" t="s">
         <v>79</v>
       </c>
@@ -4356,6 +4389,367 @@
       </c>
       <c r="I87" s="21" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="90" ht="15.25"/>
+    <row r="91" ht="15.25" spans="4:9">
+      <c r="D91" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F91" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G91" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="H91" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I91" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" ht="15.25" spans="4:9">
+      <c r="D92" s="25"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+    </row>
+    <row r="93" ht="15.25" spans="1:9">
+      <c r="A93" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D93" s="27">
+        <v>10337075</v>
+      </c>
+      <c r="E93" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="G93" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="H93" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="I93" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" ht="15.25" spans="1:9">
+      <c r="A94" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D94" s="27">
+        <v>10337089</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="G94" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="H94" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I94" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" ht="15.25" spans="1:9">
+      <c r="A95" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D95" s="27">
+        <v>10337042</v>
+      </c>
+      <c r="E95" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="G95" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="H95" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="I95" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" ht="15.25" spans="1:9">
+      <c r="A96" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D96" s="27">
+        <v>10337074</v>
+      </c>
+      <c r="E96" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="G96" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="H96" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="I96" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" ht="15.25" spans="4:9">
+      <c r="D97" s="27">
+        <v>10337078</v>
+      </c>
+      <c r="E97" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="G97" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="H97" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" ht="15.25" spans="4:9">
+      <c r="D98" s="27">
+        <v>10309485</v>
+      </c>
+      <c r="E98" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F98" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="G98" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="H98" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I98" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" ht="15.25" spans="4:9">
+      <c r="D99" s="27">
+        <v>10337038</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F99" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="G99" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="H99" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="I99" s="30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" ht="15.25" spans="4:9">
+      <c r="D100" s="27">
+        <v>10337033</v>
+      </c>
+      <c r="E100" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F100" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="G100" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="H100" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I100" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" ht="15.25" spans="4:9">
+      <c r="D101" s="27">
+        <v>10337017</v>
+      </c>
+      <c r="E101" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F101" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="G101" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="H101" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" s="30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" ht="15.25" spans="4:9">
+      <c r="D102" s="27">
+        <v>10337032</v>
+      </c>
+      <c r="E102" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F102" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="G102" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="H102" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I102" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" ht="15.25" spans="4:9">
+      <c r="D103" s="27">
+        <v>10337090</v>
+      </c>
+      <c r="E103" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F103" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="G103" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="H103" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="I103" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" ht="15.25" spans="4:9">
+      <c r="D104" s="27">
+        <v>10337069</v>
+      </c>
+      <c r="E104" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F104" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="G104" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="H104" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="I104" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" ht="15.25" spans="4:9">
+      <c r="D105" s="31">
+        <v>10337194</v>
+      </c>
+      <c r="E105" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F105" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="G105" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="H105" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="I105" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" ht="15.25" spans="4:9">
+      <c r="D106" s="31">
+        <v>10337196</v>
+      </c>
+      <c r="E106" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F106" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="G106" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="H106" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="I106" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" ht="15.25" spans="4:9">
+      <c r="D107" s="31">
+        <v>10337280</v>
+      </c>
+      <c r="E107" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F107" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="G107" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="H107" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="I107" s="30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" ht="15.25" spans="4:9">
+      <c r="D108" s="31">
+        <v>10337193</v>
+      </c>
+      <c r="E108" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F108" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="G108" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="H108" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="I108" s="30" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4365,19 +4759,25 @@
     </sortState>
     <extLst/>
   </autoFilter>
-  <mergeCells count="12">
+  <mergeCells count="18">
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D91:D92"/>
     <mergeCell ref="E51:E52"/>
     <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E91:E92"/>
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F91:F92"/>
     <mergeCell ref="G51:G52"/>
     <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G91:G92"/>
     <mergeCell ref="H51:H52"/>
     <mergeCell ref="H71:H72"/>
+    <mergeCell ref="H91:H92"/>
     <mergeCell ref="I51:I52"/>
     <mergeCell ref="I71:I72"/>
+    <mergeCell ref="I91:I92"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
